--- a/bom.xlsx
+++ b/bom.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\foc-motor-controller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\G4-FOC-Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B6BB0F-F565-49F5-AB61-0DB5C8F21663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A97C9B4-CD21-48F4-B12D-EF692035755E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B5FD5E9-492F-4082-9D25-121458D2C6E8}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
   <si>
     <t>COST PER DEVICE</t>
   </si>
@@ -142,12 +142,6 @@
     <t>CNY</t>
   </si>
   <si>
-    <t>470uF</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:C_Elec_10x10.2</t>
-  </si>
-  <si>
     <t>22uF</t>
   </si>
   <si>
@@ -160,21 +154,12 @@
     <t>Diode_SMD:D_0805_2012Metric</t>
   </si>
   <si>
-    <t>12uH</t>
-  </si>
-  <si>
     <t>Inductor_SMD:L_APV_ANR4020</t>
   </si>
   <si>
-    <t>115K</t>
-  </si>
-  <si>
     <t>47R</t>
   </si>
   <si>
-    <t>DON50N04</t>
-  </si>
-  <si>
     <t>Package_DFN_QFN:PQFN-8-EP_6x5mm_P1.27mm_Generic</t>
   </si>
   <si>
@@ -208,51 +193,9 @@
     <t>47nF</t>
   </si>
   <si>
-    <t>SWD</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_1x03_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>USB_C_Receptacle_USB2.0_16P</t>
-  </si>
-  <si>
-    <t>Connector_USB:USB_C_Receptacle_GCT_USB4105-xx-A_16P_TopMnt_Horizontal</t>
-  </si>
-  <si>
-    <t>Conn_02x09_Odd_Even</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_2x09_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>CAN_OUT</t>
-  </si>
-  <si>
-    <t>Connector_JST:JST_GH_SM04B-GHS-TB_1x04-1MP_P1.25mm_Horizontal</t>
-  </si>
-  <si>
-    <t>CAN_IN</t>
-  </si>
-  <si>
-    <t>Jumper_2_Open</t>
-  </si>
-  <si>
-    <t>Jumper:SolderJumper-2_P1.3mm_Open_RoundedPad1.0x1.5mm</t>
-  </si>
-  <si>
     <t>NMOS-8PINS</t>
   </si>
   <si>
-    <t>5.1k</t>
-  </si>
-  <si>
-    <t>5.1K</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>Resistor_SMD:R_2512_6332Metric</t>
   </si>
   <si>
@@ -262,12 +205,6 @@
     <t>Package_SO:TSSOP-16_4.4x5mm_P0.65mm</t>
   </si>
   <si>
-    <t>DRV8323HRTAR</t>
-  </si>
-  <si>
-    <t>footprints:RTA0040B</t>
-  </si>
-  <si>
     <t>TPS54240DGQ</t>
   </si>
   <si>
@@ -278,6 +215,84 @@
   </si>
   <si>
     <t>Crystal:Resonator_SMD_Murata_CSTxExxV-3Pin_3.0x1.1mm</t>
+  </si>
+  <si>
+    <t>47uF</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:CP_Elec_6.3x5.9</t>
+  </si>
+  <si>
+    <t>2.2nF</t>
+  </si>
+  <si>
+    <t>D_TVS</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_SMB</t>
+  </si>
+  <si>
+    <t>LED_RBAG</t>
+  </si>
+  <si>
+    <t>LED_SMD:LED_Cree-PLCC4_2x2mm_CW</t>
+  </si>
+  <si>
+    <t>FerriteBead</t>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>SPI</t>
+  </si>
+  <si>
+    <t>Connector_JST:JST_GH_SM06B-GHS-TB_1x06-1MP_P1.25mm_Horizontal</t>
+  </si>
+  <si>
+    <t>XT30PW_2_2_-M.G.B</t>
+  </si>
+  <si>
+    <t>XT30PW_2_2_-M.G.B:AMASS_XT30PW_2_2_-M.G.B</t>
+  </si>
+  <si>
+    <t>COMMS</t>
+  </si>
+  <si>
+    <t>Connector_JST:JST_GH_SM08B-GHS-TB_1x08-1MP_P1.25mm_Horizontal</t>
+  </si>
+  <si>
+    <t>47uH</t>
+  </si>
+  <si>
+    <t>237K</t>
+  </si>
+  <si>
+    <t>52.3K</t>
+  </si>
+  <si>
+    <t>2mR</t>
+  </si>
+  <si>
+    <t>4.7K</t>
+  </si>
+  <si>
+    <t>56R</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_Array_Convex_4x0402</t>
+  </si>
+  <si>
+    <t>Thermistor_NTC</t>
+  </si>
+  <si>
+    <t>DRV8323SRTAT</t>
+  </si>
+  <si>
+    <t>DRV8323SRTAT:RTA0040B</t>
+  </si>
+  <si>
+    <t>PCB</t>
   </si>
 </sst>
 </file>
@@ -693,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DF1E80-C1A3-459D-B215-1E5DD3EB7B2B}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -747,7 +762,7 @@
         <v>24</v>
       </c>
       <c r="M1" s="1">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -755,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -767,25 +782,25 @@
         <v>100</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
       </c>
       <c r="I2">
         <f>IF(OR(D2="DNP", F2=0, F2=""), "", C2 / F2 * IF(H2="CNY", G2*$M$1, G2))</f>
-        <v>0.1875</v>
+        <v>0.11699999999999999</v>
       </c>
       <c r="J2">
         <f>IF(OR(D2="DNP", F2=0, F2=""), "", CEILING(C2/F2,1)* IF(H2="CNY", G2*$M$1, G2))</f>
-        <v>18.75</v>
+        <v>11.7</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M2" s="3">
         <f>SUM(I:I)</f>
-        <v>184.02500000000001</v>
+        <v>258.00100000000003</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -796,34 +811,34 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>100</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I32" si="0">IF(OR(D3="DNP", F3=0, F3=""), "", C3 / F3 * IF(H3="CNY", G3*$M$1, G3))</f>
-        <v>1.875</v>
+        <v>10.53</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J32" si="1">IF(OR(D3="DNP", F3=0, F3=""), "", CEILING(C3/F3,1)* IF(H3="CNY", G3*$M$1, G3))</f>
-        <v>37.5</v>
+        <v>58.5</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="2">
         <f>SUM(J:J)</f>
-        <v>737.75</v>
+        <v>1325.7999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -834,7 +849,7 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -843,24 +858,24 @@
         <v>100</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>1.125</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>18.75</v>
+        <v>11.7</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M4" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -870,30 +885,30 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>0.5625</v>
+        <v>2.34</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>18.75</v>
+        <v>11.7</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>2</v>
@@ -906,7 +921,7 @@
     0
   )
 )</f>
-        <v>2196.25</v>
+        <v>1988.7999999999997</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -916,10 +931,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -935,11 +950,11 @@
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>2.8125</v>
+        <v>0.39</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>18.75</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -947,10 +962,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -966,11 +981,11 @@
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>18.75</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -978,13 +993,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F8">
         <v>100</v>
@@ -997,11 +1012,11 @@
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>0.1875</v>
+        <v>0.97500000000000009</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>18.75</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1009,30 +1024,33 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="F9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>1.125</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>37.5</v>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1040,30 +1058,30 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
         <v>5</v>
       </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10">
-        <v>200</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
       <c r="H10" t="s">
         <v>26</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1071,13 +1089,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F11">
         <v>300</v>
@@ -1090,11 +1108,11 @@
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>18.75</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1102,30 +1120,30 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F12">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H12" t="s">
         <v>26</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>2.34</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1133,27 +1151,30 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G13">
-        <v>3.5</v>
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>0.70000000000000007</v>
+        <v>0.23399999999999999</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1161,30 +1182,30 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F14">
         <v>200</v>
       </c>
       <c r="G14">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
         <v>26</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1192,30 +1213,30 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H15" t="s">
         <v>26</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0.156</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1223,27 +1244,27 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>1.5</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1251,30 +1272,30 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F17">
         <v>10</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
         <v>26</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>31.200000000000003</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1282,30 +1303,27 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>1.125</v>
+        <v>2</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>11.25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1313,30 +1331,30 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F19">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G19">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H19" t="s">
         <v>26</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>13.125</v>
+        <v>2.7300000000000004</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>131.25</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1344,30 +1362,30 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F20">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s">
         <v>26</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>3.7499999999999999E-2</v>
+        <v>14.040000000000001</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1375,7 +1393,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1384,7 +1402,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1394,11 +1412,11 @@
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>3.7499999999999999E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1406,7 +1424,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1415,7 +1433,7 @@
         <v>20</v>
       </c>
       <c r="F22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1425,11 +1443,11 @@
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>3.7499999999999999E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1437,16 +1455,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
       </c>
       <c r="F23">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1456,11 +1474,11 @@
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>0.26250000000000001</v>
+        <v>7.8E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1468,7 +1486,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1477,7 +1495,7 @@
         <v>20</v>
       </c>
       <c r="F24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1487,11 +1505,11 @@
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>3.7499999999999999E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1502,7 +1520,7 @@
         <v>8</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
         <v>20</v>
@@ -1518,11 +1536,11 @@
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>0.11249999999999999</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1530,10 +1548,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
         <v>20</v>
@@ -1549,11 +1567,11 @@
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>7.4999999999999997E-2</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1561,10 +1579,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E27" t="s">
         <v>20</v>
@@ -1580,11 +1598,11 @@
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>0.22499999999999998</v>
+        <v>0.156</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1592,7 +1610,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1611,11 +1629,11 @@
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>3.7499999999999999E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1623,30 +1641,30 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F29">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29" t="s">
         <v>26</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>3.7499999999999999E-2</v>
+        <v>7.02</v>
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1654,13 +1672,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="F30">
         <v>100</v>
@@ -1673,11 +1691,11 @@
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>0.11249999999999999</v>
+        <v>7.8E-2</v>
       </c>
       <c r="J30">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1685,30 +1703,30 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G31">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
         <v>26</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>67.5</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J31">
         <f t="shared" si="1"/>
-        <v>67.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1716,30 +1734,30 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G32">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H32" t="s">
         <v>26</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>33.75</v>
+        <v>0.46799999999999997</v>
       </c>
       <c r="J32">
         <f t="shared" si="1"/>
-        <v>33.75</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1756,21 +1774,21 @@
         <v>47</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>7.5</v>
+        <v>16</v>
       </c>
       <c r="H33" t="s">
         <v>26</v>
       </c>
       <c r="I33">
-        <f t="shared" ref="I33:I35" si="2">IF(OR(D33="DNP", F33=0, F33=""), "", C33 / F33 * IF(H33="CNY", G33*$M$1, G33))</f>
-        <v>5.625</v>
+        <f t="shared" ref="I33:I37" si="2">IF(OR(D33="DNP", F33=0, F33=""), "", C33 / F33 * IF(H33="CNY", G33*$M$1, G33))</f>
+        <v>62.4</v>
       </c>
       <c r="J33">
-        <f t="shared" ref="J33:J35" si="3">IF(OR(D33="DNP", F33=0, F33=""), "", CEILING(C33/F33,1)* IF(H33="CNY", G33*$M$1, G33))</f>
-        <v>28.125</v>
+        <f t="shared" ref="J33:J37" si="3">IF(OR(D33="DNP", F33=0, F33=""), "", CEILING(C33/F33,1)* IF(H33="CNY", G33*$M$1, G33))</f>
+        <v>62.4</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1778,30 +1796,30 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="H34" t="s">
         <v>26</v>
       </c>
       <c r="I34">
         <f t="shared" si="2"/>
-        <v>5.625</v>
+        <v>35.1</v>
       </c>
       <c r="J34">
         <f t="shared" si="3"/>
-        <v>5.625</v>
+        <v>35.1</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1809,13 +1827,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1828,11 +1846,11 @@
       </c>
       <c r="I35">
         <f t="shared" si="2"/>
-        <v>41.25</v>
+        <v>42.9</v>
       </c>
       <c r="J35">
         <f t="shared" si="3"/>
-        <v>41.25</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1840,22 +1858,30 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H36" t="s">
         <v>26</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>5.85</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>5.85</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1863,20 +1889,127 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>5.85</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ref="I38:I40" si="4">IF(OR(D38="DNP", F38=0, F38=""), "", C38 / F38 * IF(H38="CNY", G38*$M$1, G38))</f>
+        <v>7.8</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ref="J38:J40" si="5">IF(OR(D38="DNP", F38=0, F38=""), "", CEILING(C38/F38,1)* IF(H38="CNY", G38*$M$1, G38))</f>
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="E37" t="s">
-        <v>72</v>
+      <c r="E39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>50</v>
+      </c>
+      <c r="H40" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="4"/>
+        <v>19.5</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I47:J1048576 J34:J46 I1:J33 I34:I35">
+  <conditionalFormatting sqref="I47:J1048576 J41:J46 I1:J40">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1888,12 +2021,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:F31 G25:G30 F33:F36 F2:G24">
+  <conditionalFormatting sqref="F25:F31 G25:G30 F2:G24 F33:F40">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$D2="DNP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31 G33:G36">
+  <conditionalFormatting sqref="G31 G33:G40">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$D31="DNP"</formula>
     </cfRule>
